--- a/docs/db_table_inventory.xlsx
+++ b/docs/db_table_inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Projects\digioz\digioz-forum\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5915A8BE-A97F-4451-9312-CDF77A9280BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F3960C-E6B3-4753-ACC7-7EA1B04A153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A28D6FCA-59C7-43C5-B515-D0B33798FD3E}"/>
+    <workbookView xWindow="-46176" yWindow="0" windowWidth="23232" windowHeight="25296" xr2:uid="{A28D6FCA-59C7-43C5-B515-D0B33798FD3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="149">
   <si>
     <t>ForumAclOption</t>
   </si>
@@ -327,6 +327,162 @@
   </si>
   <si>
     <t>Stores a list of configuration key value pairs</t>
+  </si>
+  <si>
+    <t>Contact Form Info</t>
+  </si>
+  <si>
+    <t>Some sort of confirmation table based on session id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some sort of disallow table </t>
+  </si>
+  <si>
+    <t>Stores posts saved in draft mode</t>
+  </si>
+  <si>
+    <t>Stores a list of custom coded Extensions</t>
+  </si>
+  <si>
+    <t>List of file extensions possible for attachments</t>
+  </si>
+  <si>
+    <t>Attachment Type Forum</t>
+  </si>
+  <si>
+    <t>Yet another way to Group Users</t>
+  </si>
+  <si>
+    <t>List of Forum Icons available to display</t>
+  </si>
+  <si>
+    <t>List of languages available on the forum for users to see text in</t>
+  </si>
+  <si>
+    <t>Keeps a running log of forum operations</t>
+  </si>
+  <si>
+    <t>Keeps track of how many times a user has attempted to log in</t>
+  </si>
+  <si>
+    <t>For Forum Migration, no longer used as we use EF Migrations</t>
+  </si>
+  <si>
+    <t>Cache table for the list of Moderators and what forum they are assigned to</t>
+  </si>
+  <si>
+    <t>Table to enable and disable ACP, MCP and UCP modules</t>
+  </si>
+  <si>
+    <t>System notifications table</t>
+  </si>
+  <si>
+    <t>System notifications emails</t>
+  </si>
+  <si>
+    <t>System notifications types</t>
+  </si>
+  <si>
+    <t>Table for 2 Factor Authentication - Not needed because MS Identity has it</t>
+  </si>
+  <si>
+    <t>List of Poll Options</t>
+  </si>
+  <si>
+    <t>Votes for the Poll Options</t>
+  </si>
+  <si>
+    <t>Contains all Forum Posts</t>
+  </si>
+  <si>
+    <t>Private Messages</t>
+  </si>
+  <si>
+    <t>Private Message Folders</t>
+  </si>
+  <si>
+    <t>Private Message Rules</t>
+  </si>
+  <si>
+    <t>Information about each Private Message</t>
+  </si>
+  <si>
+    <t>Profile Custom Fields</t>
+  </si>
+  <si>
+    <t>Profile Custom Field Data</t>
+  </si>
+  <si>
+    <t>Profile Fields Language</t>
+  </si>
+  <si>
+    <t>Profile Custom Field Options</t>
+  </si>
+  <si>
+    <t>Yet another grouping/ranking table</t>
+  </si>
+  <si>
+    <t>Table to store Forum Reports</t>
+  </si>
+  <si>
+    <t>Stores Forum Report Category Options</t>
+  </si>
+  <si>
+    <t>Forum Search Tables, not used</t>
+  </si>
+  <si>
+    <t>Forum Sessions Table</t>
+  </si>
+  <si>
+    <t>Forum Sessions Additional Table, not used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site List Table </t>
+  </si>
+  <si>
+    <t>List of Smilies Forum will include</t>
+  </si>
+  <si>
+    <t>List of Styles Available to the Forum</t>
+  </si>
+  <si>
+    <t>Team Page Table, not used</t>
+  </si>
+  <si>
+    <t>List  of Topics</t>
+  </si>
+  <si>
+    <t>Topics Posted</t>
+  </si>
+  <si>
+    <t>Topics Tracking to see when it was updated</t>
+  </si>
+  <si>
+    <t>Topics Watch table to determine what user cares about what topic</t>
+  </si>
+  <si>
+    <t>For tracking forums that receive updated posts or topics</t>
+  </si>
+  <si>
+    <t>User Profile table</t>
+  </si>
+  <si>
+    <t>User Grouping based on the ForumGroup table</t>
+  </si>
+  <si>
+    <t>For tracking Notification type</t>
+  </si>
+  <si>
+    <t>For tracking warnings issued to users</t>
+  </si>
+  <si>
+    <t>Yet another weird watching table we do not need</t>
+  </si>
+  <si>
+    <t>Word replacement table</t>
+  </si>
+  <si>
+    <t>Friend and Foe table</t>
   </si>
 </sst>
 </file>
@@ -751,15 +907,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D006AA25-E4DA-4C1A-BD00-AC3E5DF61DC2}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="56.5703125" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1008,393 +1164,617 @@
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="1"/>
+      <c r="B34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="1"/>
+      <c r="B35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="1"/>
+      <c r="B39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="1"/>
+      <c r="B45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="1"/>
+      <c r="B46" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="1"/>
+      <c r="B47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="1"/>
+      <c r="B48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="1"/>
+      <c r="B49" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="1"/>
+      <c r="B50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="1"/>
+      <c r="B51" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="1"/>
+      <c r="B52" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="1"/>
+      <c r="B53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="1"/>
+      <c r="B54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="1"/>
+      <c r="B55" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="1"/>
+      <c r="B56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="1"/>
+      <c r="B57" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="1"/>
+      <c r="B58" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="1"/>
+      <c r="B59" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="1"/>
+      <c r="B60" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="1"/>
+      <c r="B61" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="1"/>
+      <c r="B62" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="1"/>
+      <c r="B63" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="1"/>
+      <c r="B64" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="1"/>
+      <c r="B65" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="1"/>
+      <c r="B66" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="1"/>
+      <c r="B67" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="1"/>
+      <c r="B68" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="1"/>
+      <c r="B69" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="1"/>
+      <c r="B70" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="1"/>
+      <c r="B71" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="1"/>
+      <c r="B72" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="1"/>
+      <c r="B73" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="1"/>
+      <c r="B74" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="1"/>
+      <c r="B75" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="1"/>
+      <c r="B76" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="1"/>
+      <c r="B77" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="1"/>
+      <c r="B78" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
